--- a/Hardware/RFID_Station_Parts_List.xlsx
+++ b/Hardware/RFID_Station_Parts_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobg5\Documents\Bob\Hobby\MN ACL\Reader_PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobg5\Documents\GitHub\MN_ACL\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A71F3BB-5099-494A-814C-5C53B50A970A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F8C2B8-EABD-45B9-BA94-9F879DD25DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{767E0BC8-B2C0-4E54-85D5-C5F8ECA18261}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
   <si>
     <t>ITEM</t>
   </si>
@@ -165,9 +165,6 @@
     <t>LED, 5 MM, Green</t>
   </si>
   <si>
-    <t>LED, 5 MM, Red</t>
-  </si>
-  <si>
     <t>RFID Reader, PN532 chip</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>Jumper, Female/Female (40 wire strip)</t>
   </si>
   <si>
-    <t>https://www.jameco.com/z/LTL-4223-Lite-On-Electronics-LED-Uni-Color-Red-635nm-2-Pin-T-1-3-4_697602.html?CID=MERCH</t>
-  </si>
-  <si>
     <t>https://www.jameco.com/z/LG3330-LED-Uni-Color-Green-565nm-2-Pin-T-1-3-4_34761.html?CID=MERCH</t>
   </si>
   <si>
@@ -204,24 +198,6 @@
     <t>ALT Supplier</t>
   </si>
   <si>
-    <t>Screw, Nylon, 1/4", 6/32</t>
-  </si>
-  <si>
-    <t>Need 4 standoffs</t>
-  </si>
-  <si>
-    <t>Nut, Nylon. 6/32</t>
-  </si>
-  <si>
-    <t>Need 4 screws</t>
-  </si>
-  <si>
-    <t>Washer, Nylon, #6</t>
-  </si>
-  <si>
-    <t>Need 4 washers</t>
-  </si>
-  <si>
     <t>https://www.adafruit.com/product/1439</t>
   </si>
   <si>
@@ -247,6 +223,72 @@
   </si>
   <si>
     <t>EBay</t>
+  </si>
+  <si>
+    <t>https://www.jameco.com/webapp/wcs/stores/servlet/ProductDisplay?langId=-1&amp;storeId=10001&amp;catalogId=10001&amp;productId=25523</t>
+  </si>
+  <si>
+    <t>USB Power supply, 5 volts, 1 amp or greater</t>
+  </si>
+  <si>
+    <t>https://www.jameco.com/webapp/wcs/stores/servlet/ProductDisplay?langId=-1&amp;storeId=10001&amp;catalogId=10001&amp;productId=2289807</t>
+  </si>
+  <si>
+    <t>USB Cable, 3 feet or longer, A male to B male</t>
+  </si>
+  <si>
+    <t>https://www.jameco.com/z/10U2-02203-BK-Cable-USB2-0-A-B-3-Feet-Black-USB-A-Male-To-USB-B-Male_222608.html?CID=MERCH</t>
+  </si>
+  <si>
+    <t>Make sure to purchase a 3.3 volt model (not 5 volt!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ------------</t>
+  </si>
+  <si>
+    <t>Laser cut enclosure; see CAD files in this repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -------------------------</t>
+  </si>
+  <si>
+    <t>Machine screw, flat head, phillips, M3-0.5 x 16 mm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B000NHVQXU/ref=ppx_yo_dt_b_asin_title_o02_s01</t>
+  </si>
+  <si>
+    <t>Need 8 screws; price is for a pack of 100 scews</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Machine screw, socket cap, hex drive, M3-0.5 x 16 mm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B07BS9TWP5/ref=ppx_yo_dt_b_asin_title_o02_s02</t>
+  </si>
+  <si>
+    <t>Hex nut, M3, black carbon steel</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B07H1NPJGP/ref=ppx_yo_dt_b_asin_title_o02_s00</t>
+  </si>
+  <si>
+    <t>Need 8 nuts, prince I for pack of 150 nuts</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B01L5ULRUA/ref=ppx_yo_dt_b_asin_title_o02_s00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B07DX6RBFS/ref=ppx_yo_dt_b_asin_title_o02_s02</t>
+  </si>
+  <si>
+    <t>Hex nut, M3, nylon</t>
+  </si>
+  <si>
+    <t>Need  16 nuts (8 for spacers, 8 for fastening).  Price is for a pack of 200 nuts</t>
   </si>
 </sst>
 </file>
@@ -256,7 +298,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +365,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -345,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,6 +451,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -722,10 +782,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,8 +798,8 @@
     <col min="7" max="7" width="38.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="32.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="43.28515625" customWidth="1"/>
     <col min="12" max="16" width="55" customWidth="1"/>
   </cols>
   <sheetData>
@@ -775,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1078,7 +1138,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -1111,7 +1171,9 @@
       <c r="J11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="21" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1186,25 +1248,23 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="6">
-        <v>937</v>
-      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="6">
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="H16" s="10">
         <v>3.95</v>
@@ -1216,7 +1276,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
@@ -1226,200 +1286,200 @@
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>71</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="21" t="s">
         <v>68</v>
       </c>
       <c r="H17" s="10">
-        <v>2.19</v>
-      </c>
-      <c r="I17" s="11">
-        <f t="shared" ref="I17:I28" si="2">H17*D17</f>
-        <v>2.19</v>
+        <v>1.49</v>
+      </c>
+      <c r="I17" s="15">
+        <f>D17*H17</f>
+        <v>1.49</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6">
+        <v>937</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="10">
+        <v>3.95</v>
+      </c>
+      <c r="I18" s="15">
+        <f>H18*D18</f>
+        <v>3.95</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2.19</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" ref="I19:I30" si="2">H19*D19</f>
+        <v>2.19</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6">
         <v>34761</v>
       </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="G20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="10">
         <v>0.15</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I20" s="11">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6">
         <v>1439</v>
       </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="G21" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="10">
         <v>1.5</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I21" s="11">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6">
         <v>1440</v>
       </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="10">
+      <c r="G22" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="10">
         <v>1.5</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I22" s="11">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6">
-        <v>333973</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
+        <v>23077</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="I21" s="11">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6">
-        <v>23077</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="10">
+      <c r="H23" s="10">
         <v>0.17</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I23" s="11">
         <f t="shared" si="2"/>
         <v>0.17</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="10">
-        <v>4.74</v>
-      </c>
-      <c r="I23" s="11">
-        <f t="shared" si="2"/>
-        <v>4.74</v>
-      </c>
-      <c r="J23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1427,161 +1487,280 @@
         <v>41</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="16">
-        <v>2260746</v>
-      </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="6">
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="H24" s="10">
-        <v>4.95</v>
+        <v>4.74</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="2"/>
-        <v>4.95</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>4.74</v>
+      </c>
+      <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="16">
+        <v>2260746</v>
+      </c>
       <c r="D25" s="6">
         <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="10"/>
+      <c r="F25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="10">
+        <v>4.95</v>
+      </c>
       <c r="I25" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.95</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
       <c r="E26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="H26" s="10"/>
       <c r="I26" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J26" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
       <c r="E27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="10">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="I27" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
       <c r="E28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="10">
+        <v>8.99</v>
+      </c>
       <c r="I28" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.99</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>53</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="17">
-        <f>SUM(I16:I28)</f>
-        <v>19.400000000000002</v>
-      </c>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="19">
-        <f>I13+I29</f>
-        <v>96.350000000000009</v>
-      </c>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="10">
+        <v>6.99</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" si="2"/>
+        <v>6.99</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="10">
+        <v>8.99</v>
+      </c>
+      <c r="I30" s="11">
+        <f t="shared" si="2"/>
+        <v>8.99</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="24"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="17">
+        <f>SUM(I18:I30)</f>
+        <v>48.52000000000001</v>
+      </c>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="25"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="19">
+        <f>I13+I31</f>
+        <v>125.47000000000001</v>
+      </c>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="F34" s="24"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="F43" s="24"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{B5B6F2A7-0331-4000-9F40-1B71DF4A5AA2}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{20A7CF07-209D-4186-86BF-63E49EA050D7}"/>
-    <hyperlink ref="G16" r:id="rId3" xr:uid="{2F4F95BD-13D0-4512-BBEF-86A8B8EFBA52}"/>
+    <hyperlink ref="G18" r:id="rId3" xr:uid="{2F4F95BD-13D0-4512-BBEF-86A8B8EFBA52}"/>
     <hyperlink ref="G4" r:id="rId4" xr:uid="{A21ED898-192B-455F-BD7D-9A9E6827B32D}"/>
     <hyperlink ref="G7" r:id="rId5" xr:uid="{0FFD485C-52ED-4651-939A-21A0FA5F7EA7}"/>
     <hyperlink ref="G8" r:id="rId6" xr:uid="{92221307-510B-4C41-8AB0-E6CFF471EEB0}"/>
@@ -1590,16 +1769,23 @@
     <hyperlink ref="G5" r:id="rId9" xr:uid="{45C18FA8-746F-46E1-983D-43A1F196619C}"/>
     <hyperlink ref="G9" r:id="rId10" xr:uid="{16377B9E-2C48-417F-ADA4-C3DFFB3E9109}"/>
     <hyperlink ref="G6" r:id="rId11" xr:uid="{A9099EEE-A2B0-409A-8EBE-B199FF931F3B}"/>
-    <hyperlink ref="G21" r:id="rId12" xr:uid="{BD9211FB-2BFC-40B1-9558-856B86F0C9F4}"/>
-    <hyperlink ref="G18" r:id="rId13" xr:uid="{B771BEF0-2490-4458-A86F-E3E407D05A91}"/>
-    <hyperlink ref="G22" r:id="rId14" xr:uid="{1ACAF4DD-20DD-4B97-BCDE-2D1427CF2FC5}"/>
-    <hyperlink ref="G24" r:id="rId15" xr:uid="{A613B684-B82A-4CD3-A9A4-C625BB4B7DDA}"/>
-    <hyperlink ref="G19" r:id="rId16" xr:uid="{4EC62ABD-9153-40BA-A6E4-F1C367294432}"/>
-    <hyperlink ref="G20" r:id="rId17" xr:uid="{CF38DB4A-B127-40C4-A693-75C9CCBA8970}"/>
-    <hyperlink ref="G17" r:id="rId18" xr:uid="{FD8988EE-BC0A-4379-BAA6-1604F39173E0}"/>
-    <hyperlink ref="G23" r:id="rId19" xr:uid="{434AF9C2-1111-40AD-9E29-504D44A066B0}"/>
+    <hyperlink ref="G20" r:id="rId12" xr:uid="{B771BEF0-2490-4458-A86F-E3E407D05A91}"/>
+    <hyperlink ref="G23" r:id="rId13" xr:uid="{1ACAF4DD-20DD-4B97-BCDE-2D1427CF2FC5}"/>
+    <hyperlink ref="G25" r:id="rId14" xr:uid="{A613B684-B82A-4CD3-A9A4-C625BB4B7DDA}"/>
+    <hyperlink ref="G21" r:id="rId15" xr:uid="{4EC62ABD-9153-40BA-A6E4-F1C367294432}"/>
+    <hyperlink ref="G22" r:id="rId16" xr:uid="{CF38DB4A-B127-40C4-A693-75C9CCBA8970}"/>
+    <hyperlink ref="G19" r:id="rId17" xr:uid="{FD8988EE-BC0A-4379-BAA6-1604F39173E0}"/>
+    <hyperlink ref="G24" r:id="rId18" xr:uid="{434AF9C2-1111-40AD-9E29-504D44A066B0}"/>
+    <hyperlink ref="K11" r:id="rId19" xr:uid="{AC04356A-C219-4B59-AF0B-44988E5E071C}"/>
+    <hyperlink ref="G16" r:id="rId20" xr:uid="{5F6CFF9C-515D-4B37-B639-842B98741844}"/>
+    <hyperlink ref="G17" r:id="rId21" xr:uid="{D7BEE4E8-F7E1-4B6C-AFD0-F664FAF55E21}"/>
+    <hyperlink ref="G27" r:id="rId22" xr:uid="{42F88C6E-9595-422E-8B33-BD263A58D628}"/>
+    <hyperlink ref="G28" r:id="rId23" xr:uid="{3C4EAF77-0BF8-43D5-AC01-EA1A584F7F74}"/>
+    <hyperlink ref="G29" r:id="rId24" xr:uid="{31D91194-F02B-40D0-B2C4-79844B958EF3}"/>
+    <hyperlink ref="G30" r:id="rId25" xr:uid="{181AE46E-D16D-4AA2-A6EB-D051635C3F11}"/>
+    <hyperlink ref="K25" r:id="rId26" xr:uid="{0787DD8F-C229-4040-BBAA-087346BFA3EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId20"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId27"/>
 </worksheet>
 </file>